--- a/Data/DETOX-jerarquico.xlsx
+++ b/Data/DETOX-jerarquico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7014F9-D0BE-4E8F-8E09-DF52F73C44FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54843343-A59B-4070-94E6-5F4D0A5EB998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F560556A-39FF-40D6-A17D-6864FFB87421}"/>
   </bookViews>

--- a/Data/DETOX-jerarquico.xlsx
+++ b/Data/DETOX-jerarquico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54843343-A59B-4070-94E6-5F4D0A5EB998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64782628-3E2A-4CC6-AF82-C17785139C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F560556A-39FF-40D6-A17D-6864FFB87421}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Days_T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BBEC2</t>
   </si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>PPM1</t>
+  </si>
+  <si>
+    <t>BBEC1</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -482,45 +485,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D652D7-13B4-43A2-9226-D636C950C98C}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
